--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_stock_balance.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_stock_balance.xlsx
@@ -81,18 +81,12 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -160,8 +154,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +436,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -464,7 +458,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -473,28 +467,28 @@
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="2"/>

--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_stock_balance.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_stock_balance.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siraph/Documents/pabi/pb2_addons/pabi_procurement_report/xlsx_template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,46 +30,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>NSTDA</t>
   </si>
   <si>
-    <t xml:space="preserve"> Material</t>
-  </si>
-  <si>
-    <t>Material Description</t>
-  </si>
-  <si>
     <t>ศูนย์</t>
   </si>
   <si>
-    <t>คลัง</t>
-  </si>
-  <si>
-    <t>จำนวนคงเหลือ</t>
-  </si>
-  <si>
     <t>หน่วยนับ</t>
   </si>
   <si>
-    <t>Value Unrestricted</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
     <t>Stock Balance Report</t>
+  </si>
+  <si>
+    <t>ชื่อสินค้า</t>
+  </si>
+  <si>
+    <t>คลังวัสดุ</t>
+  </si>
+  <si>
+    <t>ยอดคงเหลือ</t>
+  </si>
+  <si>
+    <t>มูลค่าสินค้าคงคลัง</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -77,8 +71,14 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,18 +144,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -165,6 +192,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -436,111 +466,109 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="1" max="1" width="17" style="2" customWidth="1"/>
+    <col min="2" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.60972222222222205" bottom="0.37013888888888902" header="0.51180555555555496" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;8 2018-02-20 09:37:39&amp;R&amp;8&amp;P / &amp;N</oddFooter>
   </headerFooter>

--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_stock_balance.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_stock_balance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Budget Summary Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>NSTDA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ศูนย์</t>
   </si>
@@ -41,12 +38,6 @@
     <t>หน่วยนับ</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Stock Balance Report</t>
-  </si>
-  <si>
     <t>ชื่อสินค้า</t>
   </si>
   <si>
@@ -57,13 +48,25 @@
   </si>
   <si>
     <t>มูลค่าสินค้าคงคลัง</t>
+  </si>
+  <si>
+    <t>คลังสินค้า</t>
+  </si>
+  <si>
+    <t>รายงานตรวจสอบจำนวน Stock คงเหลือ</t>
+  </si>
+  <si>
+    <t>วันที่เรียกรายงาน</t>
+  </si>
+  <si>
+    <t>สกุลเงิน</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -80,6 +83,17 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -89,27 +103,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -127,24 +126,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -156,32 +142,27 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -482,90 +463,77 @@
     <col min="10" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" s="10" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
     </row>
-    <row r="2" spans="1:9" ht="23" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:7" s="10" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" s="10" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="E6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="G6" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.60972222222222205" bottom="0.37013888888888902" header="0.51180555555555496" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
